--- a/BalanceSheet/ARE_bal.xlsx
+++ b/BalanceSheet/ARE_bal.xlsx
@@ -4046,7 +4046,7 @@
         <v>7110000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>6807000000.0</v>
+        <v>6556790000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>6284713000.0</v>
@@ -4173,7 +4173,7 @@
         <v>7598000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>7050000000.0</v>
+        <v>6799479000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>6737683000.0</v>
